--- a/biology/Botanique/Patellifolia_patellaris/Patellifolia_patellaris.xlsx
+++ b/biology/Botanique/Patellifolia_patellaris/Patellifolia_patellaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Patellifolia patellaris est une plante dicotylédones de la famille des Amaranthaceae (sous-famille des Betoideae), originaire de Méditerranée occidentale et des îles Canaries.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Beta patellaris Moq. (1849)
 Beta diffusa Coss.
@@ -546,9 +560,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plante herbacée annuelle ou bisanuelle[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Plante herbacée annuelle ou bisanuelle.
 Ses feuilles sont charnues, triangulaires ou ovoïdes
 Les fruits sont rouges sphériques.</t>
         </is>
@@ -578,9 +594,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Péninsule ibérique, Macaronésie, Afrique du Nord[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Péninsule ibérique, Macaronésie, Afrique du Nord.
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante peut se consommer en salade[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante peut se consommer en salade.
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Vues de la plante</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Détail d'une branche en floraison.
